--- a/teaching/traditional_assets/database/data/colombia/colombia_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/colombia/colombia_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.05309999999999999</v>
+        <v>0.0496</v>
       </c>
       <c r="E2">
-        <v>0.0983</v>
+        <v>-0.00958</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,91 +603,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-0.001214498548933839</v>
+        <v>0.0002682156833781273</v>
       </c>
       <c r="J2">
-        <v>-0.0008924286087381792</v>
+        <v>0.0002051195126585329</v>
       </c>
       <c r="K2">
-        <v>3427.2</v>
+        <v>2028.4</v>
       </c>
       <c r="L2">
-        <v>0.2291337950953387</v>
+        <v>0.1214239962646138</v>
       </c>
       <c r="M2">
-        <v>1434.6</v>
+        <v>1488.8</v>
       </c>
       <c r="N2">
-        <v>0.04018599960783215</v>
+        <v>0.04548023375520465</v>
       </c>
       <c r="O2">
-        <v>0.4185924369747899</v>
+        <v>0.733977519226977</v>
       </c>
       <c r="P2">
-        <v>1131.2</v>
+        <v>1370.1</v>
       </c>
       <c r="Q2">
-        <v>0.0316871621053811</v>
+        <v>0.04185415654755904</v>
       </c>
       <c r="R2">
-        <v>0.3300653594771242</v>
+        <v>0.6754584894498128</v>
       </c>
       <c r="S2">
-        <v>303.4</v>
+        <v>118.7</v>
       </c>
       <c r="T2">
-        <v>0.2114875226543984</v>
+        <v>0.07972864051585168</v>
       </c>
       <c r="U2">
-        <v>20954.1</v>
+        <v>29633.4</v>
       </c>
       <c r="V2">
-        <v>0.5869660214571837</v>
+        <v>0.9052484947350092</v>
       </c>
       <c r="W2">
-        <v>0.1369472979525602</v>
+        <v>0.09324104234527687</v>
       </c>
       <c r="X2">
-        <v>0.07254302129551585</v>
+        <v>0.08145004043388948</v>
       </c>
       <c r="Y2">
-        <v>0.06440427665704437</v>
+        <v>0.01179100191138739</v>
       </c>
       <c r="Z2">
-        <v>0.3927211319208557</v>
+        <v>0.305421698250767</v>
       </c>
       <c r="AA2">
-        <v>-0.0002044646873089567</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04835305812685203</v>
+        <v>0.04517285862784731</v>
       </c>
       <c r="AC2">
-        <v>-0.04877675261393777</v>
+        <v>-0.04517285862784731</v>
       </c>
       <c r="AD2">
-        <v>48888.215</v>
+        <v>59324.4</v>
       </c>
       <c r="AE2">
-        <v>761.9574884805661</v>
+        <v>5.297150938000226</v>
       </c>
       <c r="AF2">
-        <v>49650.17248848057</v>
+        <v>59329.697150938</v>
       </c>
       <c r="AG2">
-        <v>28696.07248848057</v>
+        <v>29696.297150938</v>
       </c>
       <c r="AH2">
-        <v>0.5817299809811485</v>
+        <v>0.6444341266908827</v>
       </c>
       <c r="AI2">
-        <v>0.6225135863513345</v>
+        <v>0.6471093055792877</v>
       </c>
       <c r="AJ2">
-        <v>0.4456252843509714</v>
+        <v>0.475662863657246</v>
       </c>
       <c r="AK2">
-        <v>0.4879996244116714</v>
+        <v>0.478580429493952</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -696,10 +696,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>364.2231385871589</v>
+        <v>10708.37545126354</v>
       </c>
       <c r="AP2">
-        <v>213.7892248035445</v>
+        <v>5360.342446017689</v>
       </c>
     </row>
     <row r="3">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0331</v>
+        <v>0.0638</v>
       </c>
       <c r="E3">
-        <v>0.00674</v>
+        <v>0.049</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>58.1</v>
+        <v>45.8</v>
       </c>
       <c r="L3">
-        <v>0.2027215631542219</v>
+        <v>0.18490109002826</v>
       </c>
       <c r="M3">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="N3">
-        <v>0.04656488549618321</v>
+        <v>0.05199208816049732</v>
       </c>
       <c r="O3">
-        <v>0.3149741824440619</v>
+        <v>0.4017467248908297</v>
       </c>
       <c r="P3">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="Q3">
-        <v>0.04656488549618321</v>
+        <v>0.05199208816049732</v>
       </c>
       <c r="R3">
-        <v>0.3149741824440619</v>
+        <v>0.4017467248908297</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,55 +767,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>213.2</v>
+        <v>230</v>
       </c>
       <c r="V3">
-        <v>0.5424936386768447</v>
+        <v>0.6499011020062165</v>
       </c>
       <c r="W3">
-        <v>0.1097468832640725</v>
+        <v>0.09324104234527687</v>
       </c>
       <c r="X3">
-        <v>0.04763770480163988</v>
+        <v>0.04659247447585589</v>
       </c>
       <c r="Y3">
-        <v>0.06210917846243267</v>
+        <v>0.04664856786942098</v>
       </c>
       <c r="Z3">
-        <v>1.191183744040964</v>
+        <v>0.3608682983682984</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04763701473790502</v>
+        <v>0.04342856582273767</v>
       </c>
       <c r="AC3">
-        <v>-0.04763701473790502</v>
+        <v>-0.04342856582273767</v>
       </c>
       <c r="AD3">
-        <v>0.015</v>
+        <v>96.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.015</v>
+        <v>96.5</v>
       </c>
       <c r="AG3">
-        <v>-213.185</v>
+        <v>-133.5</v>
       </c>
       <c r="AH3">
-        <v>3.816648219533606e-05</v>
+        <v>0.2142539964476022</v>
       </c>
       <c r="AI3">
-        <v>3.042503777775524e-05</v>
+        <v>0.1705248277080756</v>
       </c>
       <c r="AJ3">
-        <v>-1.185579623501932</v>
+        <v>-0.6057168784029039</v>
       </c>
       <c r="AK3">
-        <v>-0.7618783839322409</v>
+        <v>-0.397439714200655</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -832,7 +832,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grupo Bolívar S.A. (BVC:GRUBOLIVAR)</t>
+          <t>Banco Bilbao Vizcaya Argentaria Colombia S.A. (BVC:BBVACOL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -840,6 +840,12 @@
           <t>Bank (Money Center)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.309</v>
+      </c>
+      <c r="E4">
+        <v>-0.00958</v>
+      </c>
       <c r="G4">
         <v>0</v>
       </c>
@@ -853,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>397.4</v>
+        <v>144.2</v>
       </c>
       <c r="L4">
-        <v>0.2031074312583052</v>
+        <v>0.03591442305297501</v>
       </c>
       <c r="M4">
-        <v>25.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="N4">
-        <v>0.01386202450032237</v>
+        <v>0.0699284380833852</v>
       </c>
       <c r="O4">
-        <v>0.06492199295420233</v>
+        <v>0.6234396671289876</v>
       </c>
       <c r="P4">
-        <v>25.8</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="Q4">
-        <v>0.01386202450032237</v>
+        <v>0.0699284380833852</v>
       </c>
       <c r="R4">
-        <v>0.06492199295420233</v>
+        <v>0.6234396671289876</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,55 +889,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2567.3</v>
+        <v>1199.5</v>
       </c>
       <c r="V4">
-        <v>1.379378895336342</v>
+        <v>0.9330273802115744</v>
       </c>
       <c r="W4">
-        <v>0.1395708214799986</v>
+        <v>0.09984075330609983</v>
       </c>
       <c r="X4">
-        <v>0.1400089500438747</v>
+        <v>0.08905011569306433</v>
       </c>
       <c r="Y4">
-        <v>-0.0004381285638761501</v>
+        <v>0.0107906376130355</v>
       </c>
       <c r="Z4">
-        <v>0.1920117762512266</v>
+        <v>1.089904720540731</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04844372002803188</v>
+        <v>0.04431303937517304</v>
       </c>
       <c r="AC4">
-        <v>-0.04844372002803188</v>
+        <v>-0.04431303937517304</v>
       </c>
       <c r="AD4">
-        <v>9023.5</v>
+        <v>2902.1</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>9023.5</v>
+        <v>2902.1</v>
       </c>
       <c r="AG4">
-        <v>6456.2</v>
+        <v>1702.6</v>
       </c>
       <c r="AH4">
-        <v>0.8290076896928716</v>
+        <v>0.6930057071901043</v>
       </c>
       <c r="AI4">
-        <v>0.6717162318085383</v>
+        <v>0.6777440448388603</v>
       </c>
       <c r="AJ4">
-        <v>0.7762281482193955</v>
+        <v>0.5697744461548758</v>
       </c>
       <c r="AK4">
-        <v>0.5941543501868178</v>
+        <v>0.5523438767234388</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -948,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Banco Bilbao Vizcaya Argentaria Colombia S.A. (BVC:BBVACOL)</t>
+          <t>Grupo Aval Acciones y Valores S.A. (BVC:GRUPOAVAL)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -957,10 +963,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.102</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="E5">
-        <v>0.00298</v>
+        <v>0.0495</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -969,103 +975,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.002355676723294048</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.001541380817696147</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>149.3</v>
+        <v>630.9</v>
       </c>
       <c r="L5">
-        <v>0.2042128299822186</v>
+        <v>0.1439228031754722</v>
       </c>
       <c r="M5">
-        <v>78.3</v>
+        <v>404.6</v>
       </c>
       <c r="N5">
-        <v>0.04781971418101869</v>
+        <v>0.05326627873298402</v>
       </c>
       <c r="O5">
-        <v>0.5244474212993971</v>
+        <v>0.6413060706926613</v>
       </c>
       <c r="P5">
-        <v>78.3</v>
+        <v>345.8</v>
       </c>
       <c r="Q5">
-        <v>0.04781971418101869</v>
+        <v>0.04552515864030122</v>
       </c>
       <c r="R5">
-        <v>0.5244474212993971</v>
+        <v>0.5481058804881915</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>58.80000000000001</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.1453287197231834</v>
       </c>
       <c r="U5">
-        <v>695.7</v>
+        <v>10130.7</v>
       </c>
       <c r="V5">
-        <v>0.4248809087577867</v>
+        <v>1.333723900050028</v>
       </c>
       <c r="W5">
-        <v>0.09971947635586428</v>
+        <v>0.1135917610413928</v>
       </c>
       <c r="X5">
-        <v>0.08190545620071646</v>
+        <v>0.08975256762432032</v>
       </c>
       <c r="Y5">
-        <v>0.01781402015514782</v>
+        <v>0.02383919341707251</v>
       </c>
       <c r="Z5">
-        <v>0.2653006771091956</v>
+        <v>0.3934973653737399</v>
       </c>
       <c r="AA5">
-        <v>-0.0004089293746179134</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04826239622567217</v>
+        <v>0.04432875065529163</v>
       </c>
       <c r="AC5">
-        <v>-0.04867132560029009</v>
+        <v>-0.04432875065529163</v>
       </c>
       <c r="AD5">
-        <v>2935.3</v>
+        <v>17396.1</v>
       </c>
       <c r="AE5">
-        <v>9.741176262001392</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>2945.041176262001</v>
+        <v>17396.1</v>
       </c>
       <c r="AG5">
-        <v>2249.341176262002</v>
+        <v>7265.399999999998</v>
       </c>
       <c r="AH5">
-        <v>0.642679537604962</v>
+        <v>0.6960695265265946</v>
       </c>
       <c r="AI5">
-        <v>0.6706625890151944</v>
+        <v>0.6541042966238395</v>
       </c>
       <c r="AJ5">
-        <v>0.5787216267447122</v>
+        <v>0.4888838048071488</v>
       </c>
       <c r="AK5">
-        <v>0.6086635404607195</v>
+        <v>0.4412740060493421</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>12988.05309734513</v>
-      </c>
-      <c r="AP5">
-        <v>9952.837063106203</v>
       </c>
     </row>
     <row r="6">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Grupo Aval Acciones y Valores S.A. (BVC:GRUPOAVAL)</t>
+          <t>Grupo Bolívar S.A. (BVC:GRUBOLIVAR)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.111</v>
+        <v>0.035</v>
       </c>
       <c r="E6">
-        <v>0.144</v>
+        <v>-0.0348</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1097,103 +1097,97 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.002075447230357086</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>-0.001510333857322998</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>911.6</v>
+        <v>129.1</v>
       </c>
       <c r="L6">
-        <v>0.177054402082079</v>
+        <v>0.08773956775859724</v>
       </c>
       <c r="M6">
-        <v>649.2</v>
+        <v>29.1</v>
       </c>
       <c r="N6">
-        <v>0.06506639939864696</v>
+        <v>0.01882398602755676</v>
       </c>
       <c r="O6">
-        <v>0.7121544537077666</v>
+        <v>0.2254066615027111</v>
       </c>
       <c r="P6">
-        <v>345.8</v>
+        <v>29.1</v>
       </c>
       <c r="Q6">
-        <v>0.03465798045602606</v>
+        <v>0.01882398602755676</v>
       </c>
       <c r="R6">
-        <v>0.3793330408073717</v>
+        <v>0.2254066615027111</v>
       </c>
       <c r="S6">
-        <v>303.4</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.4673444239063463</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>7859.9</v>
+        <v>2841.2</v>
       </c>
       <c r="V6">
-        <v>0.7877624655474817</v>
+        <v>1.837893783556504</v>
       </c>
       <c r="W6">
-        <v>0.1599719224357287</v>
+        <v>0.04479683542107637</v>
       </c>
       <c r="X6">
-        <v>0.07831949631218733</v>
+        <v>0.1729118180159206</v>
       </c>
       <c r="Y6">
-        <v>0.08165242612354136</v>
+        <v>-0.1281149825948443</v>
       </c>
       <c r="Z6">
-        <v>0.426961621737286</v>
+        <v>0.1659242887267561</v>
       </c>
       <c r="AA6">
-        <v>-0.0006448545930873581</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.04823732503449808</v>
+        <v>0.04517285862784731</v>
       </c>
       <c r="AC6">
-        <v>-0.04888217962758544</v>
+        <v>-0.04517285862784731</v>
       </c>
       <c r="AD6">
-        <v>15653.3</v>
+        <v>9549.9</v>
       </c>
       <c r="AE6">
-        <v>414.4292757746977</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>16067.7292757747</v>
+        <v>9549.9</v>
       </c>
       <c r="AG6">
-        <v>8207.829275774697</v>
+        <v>6708.7</v>
       </c>
       <c r="AH6">
-        <v>0.6169164074404859</v>
+        <v>0.860677012923809</v>
       </c>
       <c r="AI6">
-        <v>0.6332327348515148</v>
+        <v>0.6922976548624451</v>
       </c>
       <c r="AJ6">
-        <v>0.4513434511581063</v>
+        <v>0.8127226031546047</v>
       </c>
       <c r="AK6">
-        <v>0.4686377657010342</v>
+        <v>0.612482083025207</v>
       </c>
       <c r="AL6">
         <v>0</v>
       </c>
       <c r="AM6">
         <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>216.8047091412742</v>
-      </c>
-      <c r="AP6">
-        <v>113.6818459248573</v>
       </c>
     </row>
     <row r="7">
@@ -1204,7 +1198,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bancolombia S.A. (BVC:BCOLOMBIA)</t>
+          <t>Banco de Bogotá S.A. (BVC:BOGOTA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1213,10 +1207,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.123</v>
+        <v>0.0496</v>
       </c>
       <c r="E7">
-        <v>0.0983</v>
+        <v>0.102</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1225,97 +1219,103 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001574228730377329</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.001212921558325409</v>
       </c>
       <c r="K7">
-        <v>1049.7</v>
+        <v>618</v>
       </c>
       <c r="L7">
-        <v>0.2870464054253603</v>
+        <v>0.2171316140819338</v>
       </c>
       <c r="M7">
-        <v>292.2</v>
+        <v>439.5</v>
       </c>
       <c r="N7">
-        <v>0.02213787303679796</v>
+        <v>0.06009763301472699</v>
       </c>
       <c r="O7">
-        <v>0.2783652472134895</v>
+        <v>0.7111650485436893</v>
       </c>
       <c r="P7">
-        <v>292.2</v>
+        <v>379.6</v>
       </c>
       <c r="Q7">
-        <v>0.02213787303679796</v>
+        <v>0.0519068520873501</v>
       </c>
       <c r="R7">
-        <v>0.2783652472134895</v>
+        <v>0.6142394822006473</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>59.89999999999998</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>0.1362912400455062</v>
       </c>
       <c r="U7">
-        <v>3628.4</v>
+        <v>7628.4</v>
       </c>
       <c r="V7">
-        <v>0.2748975308922578</v>
+        <v>1.043114411125241</v>
       </c>
       <c r="W7">
-        <v>0.1343237744251219</v>
+        <v>0.1069703840894535</v>
       </c>
       <c r="X7">
-        <v>0.06676654627884435</v>
+        <v>0.06699225171761321</v>
       </c>
       <c r="Y7">
-        <v>0.06755722814627754</v>
+        <v>0.03997813237184034</v>
       </c>
       <c r="Z7">
-        <v>0.556317887242523</v>
+        <v>0.4754525089944834</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.0005766865981193144</v>
       </c>
       <c r="AB7">
-        <v>0.05265612315813702</v>
+        <v>0.04851925474682969</v>
       </c>
       <c r="AC7">
-        <v>-0.05265612315813702</v>
+        <v>-0.04794256814871038</v>
       </c>
       <c r="AD7">
-        <v>13252.3</v>
+        <v>8962.6</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>5.297150938000226</v>
       </c>
       <c r="AF7">
-        <v>13252.3</v>
+        <v>8967.897150938001</v>
       </c>
       <c r="AG7">
-        <v>9623.9</v>
+        <v>1339.497150938001</v>
       </c>
       <c r="AH7">
-        <v>0.5010056178500948</v>
+        <v>0.550819895599658</v>
       </c>
       <c r="AI7">
-        <v>0.6142404901947152</v>
+        <v>0.5976407886210829</v>
       </c>
       <c r="AJ7">
-        <v>0.421675502782281</v>
+        <v>0.1548086808586472</v>
       </c>
       <c r="AK7">
-        <v>0.5362490039951635</v>
+        <v>0.1815750997352236</v>
       </c>
       <c r="AL7">
         <v>0</v>
       </c>
       <c r="AM7">
         <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>1617.797833935018</v>
+      </c>
+      <c r="AP7">
+        <v>241.7864893389894</v>
       </c>
     </row>
     <row r="8">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Banco de Bogotá S.A. (BVC:BOGOTA)</t>
+          <t>Bancolombia S.A. (BVC:BCOLOMBIA)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1335,10 +1335,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.05309999999999999</v>
+        <v>-0.0018</v>
       </c>
       <c r="E8">
-        <v>0.141</v>
+        <v>-0.162</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1347,34 +1347,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.001812043964615682</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.001399786243852401</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>861.1</v>
+        <v>262.7</v>
       </c>
       <c r="L8">
-        <v>0.2710162716772102</v>
+        <v>0.1072726530278901</v>
       </c>
       <c r="M8">
-        <v>370.8</v>
+        <v>399</v>
       </c>
       <c r="N8">
-        <v>0.04296241368123465</v>
+        <v>0.04054836841089013</v>
       </c>
       <c r="O8">
-        <v>0.4306120078968761</v>
+        <v>1.51884278644842</v>
       </c>
       <c r="P8">
-        <v>370.8</v>
+        <v>399</v>
       </c>
       <c r="Q8">
-        <v>0.04296241368123465</v>
+        <v>0.04054836841089013</v>
       </c>
       <c r="R8">
-        <v>0.4306120078968761</v>
+        <v>1.51884278644842</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1383,55 +1383,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5989.6</v>
+        <v>4824.1</v>
       </c>
       <c r="V8">
-        <v>0.6939797006071281</v>
+        <v>0.4902490828345241</v>
       </c>
       <c r="W8">
-        <v>0.146209355632906</v>
+        <v>0.03384698636843868</v>
       </c>
       <c r="X8">
-        <v>0.06609545611084452</v>
+        <v>0.06529435556570881</v>
       </c>
       <c r="Y8">
-        <v>0.08011389952206149</v>
+        <v>-0.03144736919727013</v>
       </c>
       <c r="Z8">
-        <v>0.5069576813310718</v>
+        <v>0.1596144069453679</v>
       </c>
       <c r="AA8">
-        <v>-0.0007096323885425436</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.05256668926209883</v>
+        <v>0.04828531210506485</v>
       </c>
       <c r="AC8">
-        <v>-0.05327632165064138</v>
+        <v>-0.04828531210506485</v>
       </c>
       <c r="AD8">
-        <v>8023.8</v>
+        <v>11285.7</v>
       </c>
       <c r="AE8">
-        <v>337.787036443867</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>8361.587036443867</v>
+        <v>11285.7</v>
       </c>
       <c r="AG8">
-        <v>2371.987036443867</v>
+        <v>6461.6</v>
       </c>
       <c r="AH8">
-        <v>0.4920784242090665</v>
+        <v>0.5342140889339102</v>
       </c>
       <c r="AI8">
-        <v>0.5770357691799823</v>
+        <v>0.596161769832969</v>
       </c>
       <c r="AJ8">
-        <v>0.215580564141365</v>
+        <v>0.3963758381027745</v>
       </c>
       <c r="AK8">
-        <v>0.2790248974942698</v>
+        <v>0.4580583418991245</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1439,11 +1439,127 @@
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AN8">
-        <v>129.8349514563107</v>
-      </c>
-      <c r="AP8">
-        <v>38.38166725637325</v>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Banco Davivienda S.A. (BVC:PFDAVVNDA)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>0.0472</v>
+      </c>
+      <c r="E9">
+        <v>-0.05019999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>197.7</v>
+      </c>
+      <c r="L9">
+        <v>0.1529948924315121</v>
+      </c>
+      <c r="M9">
+        <v>108.3</v>
+      </c>
+      <c r="N9">
+        <v>0.02255921011519154</v>
+      </c>
+      <c r="O9">
+        <v>0.5477996965098635</v>
+      </c>
+      <c r="P9">
+        <v>108.3</v>
+      </c>
+      <c r="Q9">
+        <v>0.02255921011519154</v>
+      </c>
+      <c r="R9">
+        <v>0.5477996965098635</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2779.5</v>
+      </c>
+      <c r="V9">
+        <v>0.5789780656987523</v>
+      </c>
+      <c r="W9">
+        <v>0.0560135996600085</v>
+      </c>
+      <c r="X9">
+        <v>0.08145004043388948</v>
+      </c>
+      <c r="Y9">
+        <v>-0.02543644077388098</v>
+      </c>
+      <c r="Z9">
+        <v>0.1437694704049844</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.04911203098428361</v>
+      </c>
+      <c r="AC9">
+        <v>-0.04911203098428361</v>
+      </c>
+      <c r="AD9">
+        <v>9131.5</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>9131.5</v>
+      </c>
+      <c r="AG9">
+        <v>6352</v>
+      </c>
+      <c r="AH9">
+        <v>0.6554241254073297</v>
+      </c>
+      <c r="AI9">
+        <v>0.7299127126230976</v>
+      </c>
+      <c r="AJ9">
+        <v>0.5695481811579258</v>
+      </c>
+      <c r="AK9">
+        <v>0.6527659312088296</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
